--- a/xlsx/country_comparison/problem_positive.xlsx
+++ b/xlsx/country_comparison/problem_positive.xlsx
@@ -35,13 +35,13 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Income inequality in [Country] is a problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climate change is a problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global poverty is a problem</t>
+    <t xml:space="preserve">Income inequality in [Country]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global poverty</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.550768398301002</v>
+        <v>0.550768403206271</v>
       </c>
       <c r="C2" t="n">
         <v>0.585794025445152</v>
@@ -424,7 +424,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.591855284782691</v>
+        <v>0.591855289897272</v>
       </c>
       <c r="C3" t="n">
         <v>0.655862045124518</v>
@@ -447,7 +447,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.50213067353725</v>
+        <v>0.502130679025185</v>
       </c>
       <c r="C4" t="n">
         <v>0.567313448641177</v>
